--- a/Mathlab Fast/Simulationen/Correlation mit awgn/4 Micros Historamm.xlsx
+++ b/Mathlab Fast/Simulationen/Correlation mit awgn/4 Micros Historamm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Dustin\Documents\_Dustins Dokumente\eigene Programme\GitHub_Repos\Signale-und-Systeme-2-Praktikum\Mathlab Fast\Simulationen\Correlation mit awgn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA893BA0-8CB2-449B-AAEA-DC189EF86790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CD496D-A052-40EF-846F-8423B93C03C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A1ACA89F-D0C4-42C7-8071-9FE483D18AA9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Klasse</t>
   </si>
@@ -46,16 +46,70 @@
     <t>Häufigkeit</t>
   </si>
   <si>
-    <t>Summe</t>
+    <t>Korrelation Fehler</t>
   </si>
   <si>
-    <t>Mittelwert</t>
+    <t>Newton Fehler</t>
   </si>
   <si>
-    <t>Laufende Summe</t>
+    <t>1 mm</t>
   </si>
   <si>
-    <t>Anzahl</t>
+    <t>2 mm</t>
+  </si>
+  <si>
+    <t>3 mm</t>
+  </si>
+  <si>
+    <t>4 mm</t>
+  </si>
+  <si>
+    <t>5 mm</t>
+  </si>
+  <si>
+    <t>6 mm</t>
+  </si>
+  <si>
+    <t>7 mm</t>
+  </si>
+  <si>
+    <t>8 mm</t>
+  </si>
+  <si>
+    <t>9 mm</t>
+  </si>
+  <si>
+    <t>10 mm</t>
+  </si>
+  <si>
+    <t>11 mm</t>
+  </si>
+  <si>
+    <t>12 mm</t>
+  </si>
+  <si>
+    <t>13 mm</t>
+  </si>
+  <si>
+    <t>14 mm</t>
+  </si>
+  <si>
+    <t>15 mm</t>
+  </si>
+  <si>
+    <t>16 mm</t>
+  </si>
+  <si>
+    <t>17 mm</t>
+  </si>
+  <si>
+    <t>18 mm</t>
+  </si>
+  <si>
+    <t>19 mm</t>
+  </si>
+  <si>
+    <t>20 mm</t>
   </si>
 </sst>
 </file>
@@ -166,6 +220,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogramm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> der Fehler bei Korrelation mit awgn</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -232,73 +316,73 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>Korrelation Fehler</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>Newton Fehler</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,001</c:v>
+                  <c:v>1 mm</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,002</c:v>
+                  <c:v>2 mm</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,003</c:v>
+                  <c:v>3 mm</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,004</c:v>
+                  <c:v>4 mm</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,005</c:v>
+                  <c:v>5 mm</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,006</c:v>
+                  <c:v>6 mm</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,007</c:v>
+                  <c:v>7 mm</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0,008</c:v>
+                  <c:v>8 mm</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0,009</c:v>
+                  <c:v>9 mm</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0,01</c:v>
+                  <c:v>10 mm</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0,011</c:v>
+                  <c:v>11 mm</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0,012</c:v>
+                  <c:v>12 mm</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0,013</c:v>
+                  <c:v>13 mm</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0,014</c:v>
+                  <c:v>14 mm</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0,015</c:v>
+                  <c:v>15 mm</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0,016</c:v>
+                  <c:v>16 mm</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0,017</c:v>
+                  <c:v>17 mm</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0,018</c:v>
+                  <c:v>18 mm</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0,019</c:v>
+                  <c:v>19 mm</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0,02</c:v>
+                  <c:v>20 mm</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>und größer</c:v>
@@ -401,7 +485,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="60"/>
         <c:overlap val="-27"/>
         <c:axId val="495477256"/>
         <c:axId val="495477912"/>
@@ -413,6 +497,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Fehler bei Positionsbestimmung der Signalquelle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -431,7 +570,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="4800000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -478,6 +617,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Anzahl</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1105,16 +1300,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1719,7 +1914,7 @@
   <dimension ref="A3:ALL45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,6 +4925,3008 @@
         <v>4.6446303311600103E-3</v>
       </c>
     </row>
+    <row r="4" spans="1:1000" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6.7260288447910897E-3</v>
+      </c>
+      <c r="B4">
+        <v>3.6376747028360702E-3</v>
+      </c>
+      <c r="C4">
+        <v>6.5587822119934202E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.44041534812276E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.19233213531494E-3</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>5.7468773061529902E-3</v>
+      </c>
+      <c r="H4">
+        <v>3.0422675347079901E-3</v>
+      </c>
+      <c r="I4">
+        <v>1.50185496109952E-3</v>
+      </c>
+      <c r="J4">
+        <v>4.3229457059895098E-3</v>
+      </c>
+      <c r="K4">
+        <v>6.2215911782777496E-3</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>5.2073265211572597E-3</v>
+      </c>
+      <c r="N4">
+        <v>7.2067386272929796E-3</v>
+      </c>
+      <c r="O4">
+        <v>1.1333037455595E-2</v>
+      </c>
+      <c r="P4">
+        <v>2.7642715324366E-3</v>
+      </c>
+      <c r="Q4">
+        <v>4.2136187494990103E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.44109633993863E-3</v>
+      </c>
+      <c r="S4">
+        <v>3.34322429557583E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.9389921416076402E-3</v>
+      </c>
+      <c r="U4">
+        <v>3.2414289673011599E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.2956258480756699E-3</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>2.5562626531450399E-3</v>
+      </c>
+      <c r="Y4">
+        <v>1.0524425430630599E-2</v>
+      </c>
+      <c r="Z4">
+        <v>9.0932903403184093E-3</v>
+      </c>
+      <c r="AA4">
+        <v>7.4850033977737701E-3</v>
+      </c>
+      <c r="AB4">
+        <v>3.00956000674504E-3</v>
+      </c>
+      <c r="AC4">
+        <v>-1</v>
+      </c>
+      <c r="AD4">
+        <v>-1</v>
+      </c>
+      <c r="AE4">
+        <v>9.3933440768676005E-3</v>
+      </c>
+      <c r="AF4">
+        <v>3.39898120461688E-3</v>
+      </c>
+      <c r="AG4">
+        <v>8.9753999174307306E-3</v>
+      </c>
+      <c r="AH4">
+        <v>4.91379815779441E-3</v>
+      </c>
+      <c r="AI4">
+        <v>5.5588996309618496E-3</v>
+      </c>
+      <c r="AJ4">
+        <v>2.1035493997662402E-3</v>
+      </c>
+      <c r="AK4">
+        <v>6.8768923061711101E-3</v>
+      </c>
+      <c r="AL4">
+        <v>4.9207620768328799E-3</v>
+      </c>
+      <c r="AM4">
+        <v>3.6867956937192302E-3</v>
+      </c>
+      <c r="AN4">
+        <v>8.8409445778029304E-4</v>
+      </c>
+      <c r="AO4">
+        <v>4.58251901776711E-3</v>
+      </c>
+      <c r="AP4">
+        <v>3.47891362289828E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>2.5655695916817099E-3</v>
+      </c>
+      <c r="AR4">
+        <v>6.1405364123949596E-3</v>
+      </c>
+      <c r="AS4">
+        <v>-1</v>
+      </c>
+      <c r="AT4">
+        <v>5.91934058343854E-3</v>
+      </c>
+      <c r="AU4">
+        <v>6.0468294078642902E-3</v>
+      </c>
+      <c r="AV4">
+        <v>9.8099887983092906E-3</v>
+      </c>
+      <c r="AW4">
+        <v>5.2254137976656704E-3</v>
+      </c>
+      <c r="AX4">
+        <v>1.5046292068350701E-3</v>
+      </c>
+      <c r="AY4">
+        <v>-2</v>
+      </c>
+      <c r="AZ4">
+        <v>1.59700866254508E-3</v>
+      </c>
+      <c r="BA4">
+        <v>1.70653617766205E-3</v>
+      </c>
+      <c r="BB4">
+        <v>8.7236732460099706E-3</v>
+      </c>
+      <c r="BC4">
+        <v>4.9178021757270898E-3</v>
+      </c>
+      <c r="BD4">
+        <v>-1</v>
+      </c>
+      <c r="BE4">
+        <v>7.4994037364885299E-3</v>
+      </c>
+      <c r="BF4">
+        <v>3.2354992135527599E-3</v>
+      </c>
+      <c r="BG4">
+        <v>8.9418921427681704E-3</v>
+      </c>
+      <c r="BH4">
+        <v>3.6603790345105598E-3</v>
+      </c>
+      <c r="BI4">
+        <v>4.3917367247547703E-3</v>
+      </c>
+      <c r="BJ4">
+        <v>-1</v>
+      </c>
+      <c r="BK4">
+        <v>-1</v>
+      </c>
+      <c r="BL4">
+        <v>2.4255736770679502E-3</v>
+      </c>
+      <c r="BM4">
+        <v>7.4236150171687505E-4</v>
+      </c>
+      <c r="BN4">
+        <v>4.2464040547570397E-3</v>
+      </c>
+      <c r="BO4">
+        <v>2.1014779281008202E-3</v>
+      </c>
+      <c r="BP4">
+        <v>9.907353513470159E-4</v>
+      </c>
+      <c r="BQ4">
+        <v>3.9540620677511297E-3</v>
+      </c>
+      <c r="BR4">
+        <v>4.4319724698097304E-3</v>
+      </c>
+      <c r="BS4">
+        <v>4.2925135352250704E-3</v>
+      </c>
+      <c r="BT4">
+        <v>-1</v>
+      </c>
+      <c r="BU4">
+        <v>5.2380098094973902E-3</v>
+      </c>
+      <c r="BV4">
+        <v>-1</v>
+      </c>
+      <c r="BW4">
+        <v>8.5091164351297193E-3</v>
+      </c>
+      <c r="BX4">
+        <v>1.12314513874498E-2</v>
+      </c>
+      <c r="BY4">
+        <v>4.01486454609477E-3</v>
+      </c>
+      <c r="BZ4">
+        <v>9.7203146834227495E-4</v>
+      </c>
+      <c r="CA4">
+        <v>2.4128461188986199E-3</v>
+      </c>
+      <c r="CB4">
+        <v>3.2834935158806001E-3</v>
+      </c>
+      <c r="CC4">
+        <v>2.46914895780152E-3</v>
+      </c>
+      <c r="CD4">
+        <v>3.6979232657590299E-3</v>
+      </c>
+      <c r="CE4">
+        <v>3.4841217890628101E-3</v>
+      </c>
+      <c r="CF4">
+        <v>6.00013285301014E-3</v>
+      </c>
+      <c r="CG4">
+        <v>2.11585209718114E-3</v>
+      </c>
+      <c r="CH4">
+        <v>1.67240181745201E-3</v>
+      </c>
+      <c r="CI4">
+        <v>6.74472969184952E-3</v>
+      </c>
+      <c r="CJ4">
+        <v>2.7863603490995499E-3</v>
+      </c>
+      <c r="CK4">
+        <v>2.6756285221119802E-3</v>
+      </c>
+      <c r="CL4">
+        <v>3.2475800956064701E-3</v>
+      </c>
+      <c r="CM4">
+        <v>2.93005086441143E-3</v>
+      </c>
+      <c r="CN4">
+        <v>2.1066744505499201E-3</v>
+      </c>
+      <c r="CO4">
+        <v>5.0116739464720703E-3</v>
+      </c>
+      <c r="CP4">
+        <v>-1</v>
+      </c>
+      <c r="CQ4">
+        <v>2.4204843566804201E-3</v>
+      </c>
+      <c r="CR4">
+        <v>3.0638454511418799E-3</v>
+      </c>
+      <c r="CS4">
+        <v>5.4612152998932701E-3</v>
+      </c>
+      <c r="CT4">
+        <v>6.7627568812335002E-3</v>
+      </c>
+      <c r="CU4">
+        <v>2.2967283056880101E-3</v>
+      </c>
+      <c r="CV4">
+        <v>3.7490351535974901E-3</v>
+      </c>
+      <c r="CW4">
+        <v>-1</v>
+      </c>
+      <c r="CX4">
+        <v>1.85708217115655E-3</v>
+      </c>
+      <c r="CY4">
+        <v>7.2581010802050001E-3</v>
+      </c>
+      <c r="CZ4">
+        <v>2.8152134885230701E-3</v>
+      </c>
+      <c r="DA4">
+        <v>6.0339348864157302E-3</v>
+      </c>
+      <c r="DB4">
+        <v>3.0123864441419399E-3</v>
+      </c>
+      <c r="DC4">
+        <v>2.4668623857593101E-3</v>
+      </c>
+      <c r="DD4">
+        <v>-2</v>
+      </c>
+      <c r="DE4">
+        <v>9.1878626315288498E-3</v>
+      </c>
+      <c r="DF4">
+        <v>6.32734053992261E-3</v>
+      </c>
+      <c r="DG4">
+        <v>2.7869579049935901E-3</v>
+      </c>
+      <c r="DH4">
+        <v>-1</v>
+      </c>
+      <c r="DI4">
+        <v>1.3858286477167301E-3</v>
+      </c>
+      <c r="DJ4">
+        <v>9.8805717331767601E-3</v>
+      </c>
+      <c r="DK4">
+        <v>1.0173427430169701E-2</v>
+      </c>
+      <c r="DL4">
+        <v>3.5535669163253001E-3</v>
+      </c>
+      <c r="DM4">
+        <v>1.15344557308766E-2</v>
+      </c>
+      <c r="DN4">
+        <v>2.1640402977143101E-3</v>
+      </c>
+      <c r="DO4">
+        <v>1.65634629166288E-3</v>
+      </c>
+      <c r="DP4">
+        <v>2.7444770124014301E-3</v>
+      </c>
+      <c r="DQ4">
+        <v>4.2538787334823001E-3</v>
+      </c>
+      <c r="DR4">
+        <v>4.5860301441629104E-3</v>
+      </c>
+      <c r="DS4">
+        <v>4.7398553850329503E-3</v>
+      </c>
+      <c r="DT4">
+        <v>4.5873116327194699E-3</v>
+      </c>
+      <c r="DU4">
+        <v>1.15597937270223E-2</v>
+      </c>
+      <c r="DV4">
+        <v>2.22602248927331E-3</v>
+      </c>
+      <c r="DW4">
+        <v>9.0113221463592307E-3</v>
+      </c>
+      <c r="DX4">
+        <v>4.1659233581984702E-3</v>
+      </c>
+      <c r="DY4">
+        <v>2.8552000205629702E-3</v>
+      </c>
+      <c r="DZ4">
+        <v>1.9944105585707399E-3</v>
+      </c>
+      <c r="EA4">
+        <v>1.38220056163189E-3</v>
+      </c>
+      <c r="EB4">
+        <v>2.3917613078127502E-3</v>
+      </c>
+      <c r="EC4">
+        <v>2.7413133462388002E-3</v>
+      </c>
+      <c r="ED4">
+        <v>4.2987369610073501E-3</v>
+      </c>
+      <c r="EE4">
+        <v>3.6526182730293099E-3</v>
+      </c>
+      <c r="EF4">
+        <v>5.9953614587875802E-3</v>
+      </c>
+      <c r="EG4">
+        <v>1.5161781009292101E-3</v>
+      </c>
+      <c r="EH4">
+        <v>-1</v>
+      </c>
+      <c r="EI4">
+        <v>2.8262042350649902E-3</v>
+      </c>
+      <c r="EJ4">
+        <v>1.82369346884938E-3</v>
+      </c>
+      <c r="EK4" s="1">
+        <v>121119564415747</v>
+      </c>
+      <c r="EL4">
+        <v>2.4540969112243701E-3</v>
+      </c>
+      <c r="EM4">
+        <v>8.6641232870215707E-3</v>
+      </c>
+      <c r="EN4">
+        <v>6.1039563057853699E-3</v>
+      </c>
+      <c r="EO4">
+        <v>4.6039214513115302E-3</v>
+      </c>
+      <c r="EP4">
+        <v>1.25991583748589E-3</v>
+      </c>
+      <c r="EQ4">
+        <v>7.3688823149625701E-3</v>
+      </c>
+      <c r="ER4">
+        <v>6.3502860865748802E-3</v>
+      </c>
+      <c r="ES4">
+        <v>-1</v>
+      </c>
+      <c r="ET4">
+        <v>3.20529897655266E-3</v>
+      </c>
+      <c r="EU4">
+        <v>-1</v>
+      </c>
+      <c r="EV4">
+        <v>5.3076272546062004E-3</v>
+      </c>
+      <c r="EW4">
+        <v>7.1297106883397403E-3</v>
+      </c>
+      <c r="EX4">
+        <v>5.3444823531323101E-3</v>
+      </c>
+      <c r="EY4">
+        <v>2.2447617080542698E-3</v>
+      </c>
+      <c r="EZ4">
+        <v>1.3796386829188401E-3</v>
+      </c>
+      <c r="FA4">
+        <v>4.6404667591634701E-3</v>
+      </c>
+      <c r="FB4">
+        <v>4.64853150869576E-3</v>
+      </c>
+      <c r="FC4">
+        <v>3.2742766233648901E-3</v>
+      </c>
+      <c r="FD4">
+        <v>9.6152808467714502E-3</v>
+      </c>
+      <c r="FE4">
+        <v>-1</v>
+      </c>
+      <c r="FF4">
+        <v>3.7335821620371199E-3</v>
+      </c>
+      <c r="FG4">
+        <v>5.5882933055633197E-3</v>
+      </c>
+      <c r="FH4">
+        <v>3.8889845405584199E-3</v>
+      </c>
+      <c r="FI4">
+        <v>2.7384520005288601E-3</v>
+      </c>
+      <c r="FJ4">
+        <v>3.9432182875005399E-3</v>
+      </c>
+      <c r="FK4">
+        <v>-1</v>
+      </c>
+      <c r="FL4">
+        <v>-1</v>
+      </c>
+      <c r="FM4">
+        <v>2.01997815226262E-3</v>
+      </c>
+      <c r="FN4">
+        <v>2.0306195562198202E-3</v>
+      </c>
+      <c r="FO4">
+        <v>3.3594798132628501E-3</v>
+      </c>
+      <c r="FP4">
+        <v>8.3187227594340701E-3</v>
+      </c>
+      <c r="FQ4">
+        <v>6.0584518478419896E-3</v>
+      </c>
+      <c r="FR4">
+        <v>3.5375626938915399E-3</v>
+      </c>
+      <c r="FS4">
+        <v>5.4429996712280502E-3</v>
+      </c>
+      <c r="FT4">
+        <v>1.9816082400151902E-3</v>
+      </c>
+      <c r="FU4">
+        <v>3.7224957956143601E-3</v>
+      </c>
+      <c r="FV4">
+        <v>5.47461389185576E-3</v>
+      </c>
+      <c r="FW4">
+        <v>1.6686728341639501E-3</v>
+      </c>
+      <c r="FX4">
+        <v>9.5568141608428497E-3</v>
+      </c>
+      <c r="FY4">
+        <v>1.1201323250219801E-2</v>
+      </c>
+      <c r="FZ4">
+        <v>1.6230355833482899E-3</v>
+      </c>
+      <c r="GA4">
+        <v>3.9714039160695398E-3</v>
+      </c>
+      <c r="GB4">
+        <v>5.2611322641842699E-3</v>
+      </c>
+      <c r="GC4">
+        <v>4.5402850542127999E-3</v>
+      </c>
+      <c r="GD4">
+        <v>5.8735087326671504E-3</v>
+      </c>
+      <c r="GE4">
+        <v>5.6502221724305099E-3</v>
+      </c>
+      <c r="GF4">
+        <v>7.44736422720814E-3</v>
+      </c>
+      <c r="GG4">
+        <v>2.5413237271515298E-3</v>
+      </c>
+      <c r="GH4">
+        <v>2.94742874133967E-3</v>
+      </c>
+      <c r="GI4">
+        <v>4.9005893192429198E-3</v>
+      </c>
+      <c r="GJ4">
+        <v>2.8424012970685E-3</v>
+      </c>
+      <c r="GK4">
+        <v>-1</v>
+      </c>
+      <c r="GL4">
+        <v>9.0923966528314998E-3</v>
+      </c>
+      <c r="GM4">
+        <v>1.00208876146343E-3</v>
+      </c>
+      <c r="GN4">
+        <v>3.9502729830683796E-3</v>
+      </c>
+      <c r="GO4">
+        <v>4.8071947564138004E-3</v>
+      </c>
+      <c r="GP4">
+        <v>4.3538422088589398E-3</v>
+      </c>
+      <c r="GQ4">
+        <v>4.45914026810427E-3</v>
+      </c>
+      <c r="GR4">
+        <v>2.2454667631797401E-3</v>
+      </c>
+      <c r="GS4">
+        <v>1.4883497217701601E-2</v>
+      </c>
+      <c r="GT4">
+        <v>8.6583559715875495E-3</v>
+      </c>
+      <c r="GU4">
+        <v>8.7378585210079497E-3</v>
+      </c>
+      <c r="GV4">
+        <v>6.24675587145581E-3</v>
+      </c>
+      <c r="GW4">
+        <v>1.5254620365135201E-3</v>
+      </c>
+      <c r="GX4">
+        <v>4.8692500200797403E-3</v>
+      </c>
+      <c r="GY4">
+        <v>3.5414076469217201E-3</v>
+      </c>
+      <c r="GZ4">
+        <v>4.2905803210387897E-3</v>
+      </c>
+      <c r="HA4">
+        <v>5.3275701240734098E-3</v>
+      </c>
+      <c r="HB4">
+        <v>2.5242445642220598E-3</v>
+      </c>
+      <c r="HC4">
+        <v>3.5640903089226E-3</v>
+      </c>
+      <c r="HD4">
+        <v>1.4351881637231501E-3</v>
+      </c>
+      <c r="HE4">
+        <v>1.77040242506047E-3</v>
+      </c>
+      <c r="HF4">
+        <v>2.0569301985824502E-3</v>
+      </c>
+      <c r="HG4">
+        <v>4.0354319404976996E-3</v>
+      </c>
+      <c r="HH4">
+        <v>2.2841536202814002E-3</v>
+      </c>
+      <c r="HI4">
+        <v>1.9389477746019599E-3</v>
+      </c>
+      <c r="HJ4">
+        <v>1.8235770475186299E-3</v>
+      </c>
+      <c r="HK4">
+        <v>8.6063928643515392E-3</v>
+      </c>
+      <c r="HL4">
+        <v>8.9116287712430204E-3</v>
+      </c>
+      <c r="HM4">
+        <v>2.9913290104764401E-3</v>
+      </c>
+      <c r="HN4">
+        <v>3.0940287355402901E-3</v>
+      </c>
+      <c r="HO4">
+        <v>-2</v>
+      </c>
+      <c r="HP4">
+        <v>3.7474379534571801E-3</v>
+      </c>
+      <c r="HQ4">
+        <v>5.1849649772087204E-3</v>
+      </c>
+      <c r="HR4">
+        <v>5.1399640832541799E-3</v>
+      </c>
+      <c r="HS4">
+        <v>3.05212985560221E-3</v>
+      </c>
+      <c r="HT4">
+        <v>3.6997547982557501E-3</v>
+      </c>
+      <c r="HU4">
+        <v>2.5579766209819399E-3</v>
+      </c>
+      <c r="HV4">
+        <v>3.3186303839835602E-3</v>
+      </c>
+      <c r="HW4">
+        <v>1.2116309089678101E-3</v>
+      </c>
+      <c r="HX4">
+        <v>4.1194418502661203E-3</v>
+      </c>
+      <c r="HY4">
+        <v>6.33091949169201E-3</v>
+      </c>
+      <c r="HZ4">
+        <v>3.1369439202950898E-3</v>
+      </c>
+      <c r="IA4">
+        <v>7.16348918267157E-3</v>
+      </c>
+      <c r="IB4">
+        <v>2.27880457977614E-3</v>
+      </c>
+      <c r="IC4">
+        <v>4.2772506973536503E-3</v>
+      </c>
+      <c r="ID4">
+        <v>4.4286745588414996E-3</v>
+      </c>
+      <c r="IE4">
+        <v>3.2017744335362799E-3</v>
+      </c>
+      <c r="IF4">
+        <v>-1</v>
+      </c>
+      <c r="IG4">
+        <v>-2</v>
+      </c>
+      <c r="IH4">
+        <v>1.04065371529432E-2</v>
+      </c>
+      <c r="II4">
+        <v>6.8256595884230598E-3</v>
+      </c>
+      <c r="IJ4">
+        <v>2.2919654877494801E-3</v>
+      </c>
+      <c r="IK4">
+        <v>8.1790049995126794E-3</v>
+      </c>
+      <c r="IL4">
+        <v>1.6319140796897901E-3</v>
+      </c>
+      <c r="IM4">
+        <v>1.151268599203E-2</v>
+      </c>
+      <c r="IN4">
+        <v>1.82113561638511E-3</v>
+      </c>
+      <c r="IO4">
+        <v>2.0965333153343201E-3</v>
+      </c>
+      <c r="IP4">
+        <v>-1</v>
+      </c>
+      <c r="IQ4">
+        <v>1.0909333642536901E-2</v>
+      </c>
+      <c r="IR4">
+        <v>4.88513547116547E-3</v>
+      </c>
+      <c r="IS4">
+        <v>4.4104300625632496E-3</v>
+      </c>
+      <c r="IT4">
+        <v>5.6110300902401898E-3</v>
+      </c>
+      <c r="IU4">
+        <v>7.8381736088486802E-3</v>
+      </c>
+      <c r="IV4">
+        <v>4.3110108623696996E-3</v>
+      </c>
+      <c r="IW4">
+        <v>3.2483913195642698E-3</v>
+      </c>
+      <c r="IX4">
+        <v>2.6702912974841302E-3</v>
+      </c>
+      <c r="IY4">
+        <v>8.0873343959705305E-3</v>
+      </c>
+      <c r="IZ4">
+        <v>3.9086230793097003E-3</v>
+      </c>
+      <c r="JA4">
+        <v>2.51984767158134E-3</v>
+      </c>
+      <c r="JB4">
+        <v>1.0498840561666001E-3</v>
+      </c>
+      <c r="JC4">
+        <v>3.42668917550039E-3</v>
+      </c>
+      <c r="JD4">
+        <v>1.0121338183179901E-3</v>
+      </c>
+      <c r="JE4">
+        <v>4.7721818419203697E-3</v>
+      </c>
+      <c r="JF4">
+        <v>4.8646683013047701E-3</v>
+      </c>
+      <c r="JG4">
+        <v>1.8761656400215201E-3</v>
+      </c>
+      <c r="JH4">
+        <v>3.2505776793576198E-3</v>
+      </c>
+      <c r="JI4">
+        <v>1.1855757994434999E-2</v>
+      </c>
+      <c r="JJ4">
+        <v>4.62817204905526E-4</v>
+      </c>
+      <c r="JK4">
+        <v>4.4337552778120201E-3</v>
+      </c>
+      <c r="JL4">
+        <v>5.5106253851162097E-3</v>
+      </c>
+      <c r="JM4">
+        <v>3.9190469122663699E-3</v>
+      </c>
+      <c r="JN4">
+        <v>3.94561887891448E-3</v>
+      </c>
+      <c r="JO4">
+        <v>4.3862039197485499E-3</v>
+      </c>
+      <c r="JP4">
+        <v>4.4717501278741601E-3</v>
+      </c>
+      <c r="JQ4">
+        <v>5.4202788414562603E-3</v>
+      </c>
+      <c r="JR4">
+        <v>2.82682659615692E-3</v>
+      </c>
+      <c r="JS4">
+        <v>5.2993357188603502E-3</v>
+      </c>
+      <c r="JT4">
+        <v>4.1224723820759996E-3</v>
+      </c>
+      <c r="JU4">
+        <v>1.82112624091875E-3</v>
+      </c>
+      <c r="JV4">
+        <v>2.3361870308137201E-3</v>
+      </c>
+      <c r="JW4">
+        <v>1.0202058095119501E-2</v>
+      </c>
+      <c r="JX4">
+        <v>1.6876291571366799E-3</v>
+      </c>
+      <c r="JY4">
+        <v>6.2211525226809599E-3</v>
+      </c>
+      <c r="JZ4">
+        <v>1.6588700323223601E-3</v>
+      </c>
+      <c r="KA4">
+        <v>1.3472341502283301E-3</v>
+      </c>
+      <c r="KB4">
+        <v>2.00516132077156E-3</v>
+      </c>
+      <c r="KC4">
+        <v>3.7948149662721401E-3</v>
+      </c>
+      <c r="KD4">
+        <v>6.44541120358109E-4</v>
+      </c>
+      <c r="KE4">
+        <v>3.8480640174365101E-3</v>
+      </c>
+      <c r="KF4">
+        <v>5.5467783328531596E-3</v>
+      </c>
+      <c r="KG4">
+        <v>1.1519130357820701E-2</v>
+      </c>
+      <c r="KH4">
+        <v>2.7541782735467E-3</v>
+      </c>
+      <c r="KI4">
+        <v>7.1248060282927397E-3</v>
+      </c>
+      <c r="KJ4">
+        <v>3.0290151773628799E-3</v>
+      </c>
+      <c r="KK4">
+        <v>5.4983057899368002E-3</v>
+      </c>
+      <c r="KL4">
+        <v>3.2407134923088301E-3</v>
+      </c>
+      <c r="KM4">
+        <v>4.4320412938207501E-3</v>
+      </c>
+      <c r="KN4">
+        <v>5.7705034184914001E-3</v>
+      </c>
+      <c r="KO4">
+        <v>4.2511657841818101E-3</v>
+      </c>
+      <c r="KP4">
+        <v>5.9732025699817896E-3</v>
+      </c>
+      <c r="KQ4">
+        <v>1.6531468643261899E-3</v>
+      </c>
+      <c r="KR4">
+        <v>4.3612211022031099E-3</v>
+      </c>
+      <c r="KS4">
+        <v>3.2052382009019002E-3</v>
+      </c>
+      <c r="KT4">
+        <v>8.7591625599867506E-3</v>
+      </c>
+      <c r="KU4">
+        <v>1.2467315053771499E-3</v>
+      </c>
+      <c r="KV4">
+        <v>5.6714457203298598E-3</v>
+      </c>
+      <c r="KW4">
+        <v>1.4564020534929901E-3</v>
+      </c>
+      <c r="KX4">
+        <v>1.03033901623439E-3</v>
+      </c>
+      <c r="KY4">
+        <v>2.6243653971438699E-3</v>
+      </c>
+      <c r="KZ4">
+        <v>2.11700038889257E-3</v>
+      </c>
+      <c r="LA4">
+        <v>3.2223892032359801E-3</v>
+      </c>
+      <c r="LB4">
+        <v>-1</v>
+      </c>
+      <c r="LC4">
+        <v>1.15879863447714E-3</v>
+      </c>
+      <c r="LD4">
+        <v>7.24730418387305E-3</v>
+      </c>
+      <c r="LE4">
+        <v>-1</v>
+      </c>
+      <c r="LF4">
+        <v>4.5959597326153297E-3</v>
+      </c>
+      <c r="LG4">
+        <v>8.5232566444490504E-4</v>
+      </c>
+      <c r="LH4">
+        <v>6.7924386470077196E-3</v>
+      </c>
+      <c r="LI4">
+        <v>1.6340686903834299E-3</v>
+      </c>
+      <c r="LJ4">
+        <v>3.9642717696820699E-3</v>
+      </c>
+      <c r="LK4">
+        <v>-1</v>
+      </c>
+      <c r="LL4">
+        <v>8.4002833438019207E-3</v>
+      </c>
+      <c r="LM4">
+        <v>1.2168145563721999E-3</v>
+      </c>
+      <c r="LN4">
+        <v>3.8937268831434799E-3</v>
+      </c>
+      <c r="LO4">
+        <v>3.8339393066570602E-3</v>
+      </c>
+      <c r="LP4">
+        <v>1.24814335683161E-3</v>
+      </c>
+      <c r="LQ4">
+        <v>1.9868887240832799E-3</v>
+      </c>
+      <c r="LR4">
+        <v>2.8162363345285301E-3</v>
+      </c>
+      <c r="LS4">
+        <v>1.63229546091807E-3</v>
+      </c>
+      <c r="LT4">
+        <v>4.0609456274265298E-3</v>
+      </c>
+      <c r="LU4">
+        <v>5.43463172766001E-3</v>
+      </c>
+      <c r="LV4">
+        <v>2.7624284475545801E-3</v>
+      </c>
+      <c r="LW4">
+        <v>-1</v>
+      </c>
+      <c r="LX4">
+        <v>3.4157323667360598E-3</v>
+      </c>
+      <c r="LY4">
+        <v>7.8724907334071607E-3</v>
+      </c>
+      <c r="LZ4">
+        <v>3.9554211395300401E-3</v>
+      </c>
+      <c r="MA4">
+        <v>7.8679793982185699E-3</v>
+      </c>
+      <c r="MB4">
+        <v>6.2720709979193602E-3</v>
+      </c>
+      <c r="MC4">
+        <v>3.3108557674481399E-3</v>
+      </c>
+      <c r="MD4">
+        <v>4.32884770818261E-3</v>
+      </c>
+      <c r="ME4">
+        <v>5.4883251249484297E-3</v>
+      </c>
+      <c r="MF4">
+        <v>3.8093324148448099E-3</v>
+      </c>
+      <c r="MG4">
+        <v>7.9173533132479296E-3</v>
+      </c>
+      <c r="MH4">
+        <v>-1</v>
+      </c>
+      <c r="MI4">
+        <v>1.6073876696058901E-3</v>
+      </c>
+      <c r="MJ4">
+        <v>1.08724321401273E-2</v>
+      </c>
+      <c r="MK4">
+        <v>3.27860149053846E-3</v>
+      </c>
+      <c r="ML4">
+        <v>4.8065792565640097E-3</v>
+      </c>
+      <c r="MM4">
+        <v>3.17164193299278E-3</v>
+      </c>
+      <c r="MN4">
+        <v>8.8999723672120393E-3</v>
+      </c>
+      <c r="MO4">
+        <v>6.8530139061079402E-3</v>
+      </c>
+      <c r="MP4">
+        <v>4.4097986208383698E-3</v>
+      </c>
+      <c r="MQ4">
+        <v>1.9905606796942E-3</v>
+      </c>
+      <c r="MR4">
+        <v>4.9571233174232499E-3</v>
+      </c>
+      <c r="MS4">
+        <v>1.9257740217353001E-3</v>
+      </c>
+      <c r="MT4" s="1">
+        <v>283130878123919</v>
+      </c>
+      <c r="MU4">
+        <v>4.3048814517639502E-4</v>
+      </c>
+      <c r="MV4">
+        <v>6.3130842577503498E-3</v>
+      </c>
+      <c r="MW4">
+        <v>3.0886316705460901E-3</v>
+      </c>
+      <c r="MX4">
+        <v>-1</v>
+      </c>
+      <c r="MY4">
+        <v>6.0888857505485604E-3</v>
+      </c>
+      <c r="MZ4">
+        <v>2.0049391600629701E-3</v>
+      </c>
+      <c r="NA4">
+        <v>1.06170925948996E-2</v>
+      </c>
+      <c r="NB4">
+        <v>2.2158953153377102E-3</v>
+      </c>
+      <c r="NC4">
+        <v>6.88832065442995E-4</v>
+      </c>
+      <c r="ND4">
+        <v>4.0138369191666202E-3</v>
+      </c>
+      <c r="NE4">
+        <v>4.2742107632481796E-3</v>
+      </c>
+      <c r="NF4">
+        <v>1.59298579777186E-3</v>
+      </c>
+      <c r="NG4">
+        <v>6.4737742605509704E-3</v>
+      </c>
+      <c r="NH4">
+        <v>1.73320609802009E-3</v>
+      </c>
+      <c r="NI4">
+        <v>5.9710123444580501E-3</v>
+      </c>
+      <c r="NJ4">
+        <v>-1</v>
+      </c>
+      <c r="NK4">
+        <v>-1</v>
+      </c>
+      <c r="NL4">
+        <v>-1</v>
+      </c>
+      <c r="NM4">
+        <v>-1</v>
+      </c>
+      <c r="NN4">
+        <v>4.1225648325739998E-3</v>
+      </c>
+      <c r="NO4">
+        <v>2.4133282925492298E-3</v>
+      </c>
+      <c r="NP4">
+        <v>2.6226252083091702E-3</v>
+      </c>
+      <c r="NQ4">
+        <v>4.4543423250568998E-3</v>
+      </c>
+      <c r="NR4">
+        <v>2.0332372090442201E-3</v>
+      </c>
+      <c r="NS4">
+        <v>3.8926299293375799E-3</v>
+      </c>
+      <c r="NT4">
+        <v>1.69257213191648E-3</v>
+      </c>
+      <c r="NU4">
+        <v>2.5033361166968398E-3</v>
+      </c>
+      <c r="NV4">
+        <v>2.0500265603015E-3</v>
+      </c>
+      <c r="NW4">
+        <v>1.8793313799913001E-3</v>
+      </c>
+      <c r="NX4">
+        <v>2.1312073752545201E-3</v>
+      </c>
+      <c r="NY4">
+        <v>2.67735742031888E-3</v>
+      </c>
+      <c r="NZ4">
+        <v>-2</v>
+      </c>
+      <c r="OA4">
+        <v>3.9616971998076801E-3</v>
+      </c>
+      <c r="OB4">
+        <v>8.3546507905676998E-3</v>
+      </c>
+      <c r="OC4">
+        <v>1.73024796274241E-3</v>
+      </c>
+      <c r="OD4">
+        <v>4.7905077046281304E-3</v>
+      </c>
+      <c r="OE4">
+        <v>2.51002342875138E-3</v>
+      </c>
+      <c r="OF4">
+        <v>3.49205627336696E-3</v>
+      </c>
+      <c r="OG4">
+        <v>1.92287642333057E-3</v>
+      </c>
+      <c r="OH4">
+        <v>2.8969430975220598E-3</v>
+      </c>
+      <c r="OI4">
+        <v>2.7124958956054198E-3</v>
+      </c>
+      <c r="OJ4">
+        <v>1.9982464340741399E-3</v>
+      </c>
+      <c r="OK4">
+        <v>-2</v>
+      </c>
+      <c r="OL4">
+        <v>5.3137688029461904E-3</v>
+      </c>
+      <c r="OM4">
+        <v>7.4059180596117496E-3</v>
+      </c>
+      <c r="ON4">
+        <v>1.0601066496635799E-2</v>
+      </c>
+      <c r="OO4">
+        <v>9.6571772566164497E-3</v>
+      </c>
+      <c r="OP4">
+        <v>5.9197683909448899E-3</v>
+      </c>
+      <c r="OQ4">
+        <v>3.48008962266306E-3</v>
+      </c>
+      <c r="OR4">
+        <v>7.0399348803294199E-3</v>
+      </c>
+      <c r="OS4">
+        <v>3.51077774112311E-3</v>
+      </c>
+      <c r="OT4">
+        <v>2.1779127428728298E-3</v>
+      </c>
+      <c r="OU4">
+        <v>2.5077227826925501E-3</v>
+      </c>
+      <c r="OV4">
+        <v>2.8833091891642898E-3</v>
+      </c>
+      <c r="OW4">
+        <v>1.29911878870417E-3</v>
+      </c>
+      <c r="OX4">
+        <v>7.61261476811044E-3</v>
+      </c>
+      <c r="OY4">
+        <v>1.2817392700072399E-3</v>
+      </c>
+      <c r="OZ4">
+        <v>1.3240355859467201E-3</v>
+      </c>
+      <c r="PA4">
+        <v>6.0161606198996598E-3</v>
+      </c>
+      <c r="PB4">
+        <v>1.2217095413468099E-3</v>
+      </c>
+      <c r="PC4">
+        <v>8.0696127315628104E-4</v>
+      </c>
+      <c r="PD4">
+        <v>4.5761003754380501E-3</v>
+      </c>
+      <c r="PE4">
+        <v>1.63953928181332E-3</v>
+      </c>
+      <c r="PF4">
+        <v>1.45307777964336E-3</v>
+      </c>
+      <c r="PG4">
+        <v>4.8295644297207596E-3</v>
+      </c>
+      <c r="PH4">
+        <v>6.7353104519772503E-3</v>
+      </c>
+      <c r="PI4">
+        <v>6.2210620921888497E-3</v>
+      </c>
+      <c r="PJ4">
+        <v>4.6406836436864796E-3</v>
+      </c>
+      <c r="PK4">
+        <v>1.50061699988323E-2</v>
+      </c>
+      <c r="PL4">
+        <v>4.2759059628379604E-3</v>
+      </c>
+      <c r="PM4">
+        <v>-1</v>
+      </c>
+      <c r="PN4">
+        <v>4.0797985423772004E-3</v>
+      </c>
+      <c r="PO4">
+        <v>4.6646486493601902E-3</v>
+      </c>
+      <c r="PP4">
+        <v>1.5170252759587001E-3</v>
+      </c>
+      <c r="PQ4">
+        <v>8.7208592515678508E-3</v>
+      </c>
+      <c r="PR4">
+        <v>1.8855174534942801E-3</v>
+      </c>
+      <c r="PS4">
+        <v>2.84265972940736E-3</v>
+      </c>
+      <c r="PT4">
+        <v>3.6726270962234202E-3</v>
+      </c>
+      <c r="PU4">
+        <v>3.9599725359016798E-3</v>
+      </c>
+      <c r="PV4">
+        <v>1.8599293397193099E-3</v>
+      </c>
+      <c r="PW4">
+        <v>1.0805798680436201E-2</v>
+      </c>
+      <c r="PX4">
+        <v>-1</v>
+      </c>
+      <c r="PY4">
+        <v>2.4734370105599099E-3</v>
+      </c>
+      <c r="PZ4">
+        <v>1.89718853679366E-3</v>
+      </c>
+      <c r="QA4">
+        <v>4.0404371158724098E-3</v>
+      </c>
+      <c r="QB4">
+        <v>1.56522588642414E-3</v>
+      </c>
+      <c r="QC4">
+        <v>4.5288642638679801E-3</v>
+      </c>
+      <c r="QD4">
+        <v>7.56588569551528E-4</v>
+      </c>
+      <c r="QE4">
+        <v>4.5043362770196297E-3</v>
+      </c>
+      <c r="QF4">
+        <v>3.4024455774642301E-4</v>
+      </c>
+      <c r="QG4">
+        <v>3.8833007460405398E-3</v>
+      </c>
+      <c r="QH4">
+        <v>4.2896646646393699E-3</v>
+      </c>
+      <c r="QI4">
+        <v>-1</v>
+      </c>
+      <c r="QJ4">
+        <v>6.8484742541903305E-4</v>
+      </c>
+      <c r="QK4">
+        <v>-1</v>
+      </c>
+      <c r="QL4">
+        <v>3.6586615731494E-3</v>
+      </c>
+      <c r="QM4">
+        <v>4.8103843661049502E-3</v>
+      </c>
+      <c r="QN4">
+        <v>9.9982867462749606E-3</v>
+      </c>
+      <c r="QO4">
+        <v>3.56019879458923E-3</v>
+      </c>
+      <c r="QP4">
+        <v>7.3383361046314996E-3</v>
+      </c>
+      <c r="QQ4">
+        <v>2.8634759550434999E-3</v>
+      </c>
+      <c r="QR4">
+        <v>3.1005731722732301E-3</v>
+      </c>
+      <c r="QS4">
+        <v>6.9046440401761E-3</v>
+      </c>
+      <c r="QT4">
+        <v>2.4933880605602999E-3</v>
+      </c>
+      <c r="QU4">
+        <v>3.82623861123541E-3</v>
+      </c>
+      <c r="QV4">
+        <v>4.4042852339392802E-3</v>
+      </c>
+      <c r="QW4">
+        <v>2.3746499653619999E-3</v>
+      </c>
+      <c r="QX4">
+        <v>6.5650793583502702E-3</v>
+      </c>
+      <c r="QY4">
+        <v>6.3504415357378101E-3</v>
+      </c>
+      <c r="QZ4">
+        <v>7.32700981846858E-3</v>
+      </c>
+      <c r="RA4">
+        <v>6.0532263715129004E-3</v>
+      </c>
+      <c r="RB4">
+        <v>5.12061315101996E-3</v>
+      </c>
+      <c r="RC4">
+        <v>4.8271411954725002E-3</v>
+      </c>
+      <c r="RD4">
+        <v>3.7694410710690401E-3</v>
+      </c>
+      <c r="RE4">
+        <v>4.4939535786122399E-3</v>
+      </c>
+      <c r="RF4">
+        <v>2.8666613298734401E-3</v>
+      </c>
+      <c r="RG4">
+        <v>5.0930885192116901E-3</v>
+      </c>
+      <c r="RH4">
+        <v>3.2608224096963298E-3</v>
+      </c>
+      <c r="RI4">
+        <v>8.8587761123732692E-3</v>
+      </c>
+      <c r="RJ4">
+        <v>2.6465712474393601E-3</v>
+      </c>
+      <c r="RK4">
+        <v>2.36192739992895E-3</v>
+      </c>
+      <c r="RL4">
+        <v>2.7903359397314698E-3</v>
+      </c>
+      <c r="RM4">
+        <v>3.7184113985720599E-3</v>
+      </c>
+      <c r="RN4">
+        <v>1.72783734322807E-3</v>
+      </c>
+      <c r="RO4">
+        <v>6.4397582715164199E-3</v>
+      </c>
+      <c r="RP4" s="1">
+        <v>253525768697512</v>
+      </c>
+      <c r="RQ4">
+        <v>3.04399971107142E-3</v>
+      </c>
+      <c r="RR4">
+        <v>4.9618959061255999E-3</v>
+      </c>
+      <c r="RS4">
+        <v>1.7795660588985701E-3</v>
+      </c>
+      <c r="RT4" s="1">
+        <v>859402092699895</v>
+      </c>
+      <c r="RU4">
+        <v>2.6936190475330998E-3</v>
+      </c>
+      <c r="RV4">
+        <v>1.3585123440863899E-3</v>
+      </c>
+      <c r="RW4">
+        <v>3.8887204283393601E-3</v>
+      </c>
+      <c r="RX4">
+        <v>-1</v>
+      </c>
+      <c r="RY4">
+        <v>3.3954669329097002E-3</v>
+      </c>
+      <c r="RZ4">
+        <v>8.97795301158252E-3</v>
+      </c>
+      <c r="SA4">
+        <v>3.5591120759522498E-3</v>
+      </c>
+      <c r="SB4">
+        <v>6.6235668624853097E-3</v>
+      </c>
+      <c r="SC4">
+        <v>6.9079554373798402E-3</v>
+      </c>
+      <c r="SD4">
+        <v>7.4212304662093602E-3</v>
+      </c>
+      <c r="SE4">
+        <v>1.5982277608778399E-3</v>
+      </c>
+      <c r="SF4">
+        <v>1.09102817749103E-2</v>
+      </c>
+      <c r="SG4">
+        <v>4.3568904471619598E-3</v>
+      </c>
+      <c r="SH4">
+        <v>3.6221842339167901E-3</v>
+      </c>
+      <c r="SI4">
+        <v>4.7203077628087597E-3</v>
+      </c>
+      <c r="SJ4">
+        <v>-1</v>
+      </c>
+      <c r="SK4">
+        <v>3.17838809693287E-3</v>
+      </c>
+      <c r="SL4">
+        <v>-1</v>
+      </c>
+      <c r="SM4">
+        <v>4.1039751159640198E-3</v>
+      </c>
+      <c r="SN4">
+        <v>2.20067985432386E-3</v>
+      </c>
+      <c r="SO4">
+        <v>3.5467415444142801E-3</v>
+      </c>
+      <c r="SP4">
+        <v>1.9467736144097899E-3</v>
+      </c>
+      <c r="SQ4">
+        <v>2.57762975883438E-3</v>
+      </c>
+      <c r="SR4">
+        <v>1.02985725624378E-2</v>
+      </c>
+      <c r="SS4">
+        <v>1.3519415112458199E-3</v>
+      </c>
+      <c r="ST4">
+        <v>4.46790062877168E-3</v>
+      </c>
+      <c r="SU4">
+        <v>4.7096012649484502E-3</v>
+      </c>
+      <c r="SV4">
+        <v>7.19499751968301E-3</v>
+      </c>
+      <c r="SW4">
+        <v>3.5533580437710601E-3</v>
+      </c>
+      <c r="SX4">
+        <v>-2</v>
+      </c>
+      <c r="SY4">
+        <v>4.17520360780775E-3</v>
+      </c>
+      <c r="SZ4">
+        <v>8.9774961655817703E-3</v>
+      </c>
+      <c r="TA4">
+        <v>3.96418001538672E-3</v>
+      </c>
+      <c r="TB4">
+        <v>-1</v>
+      </c>
+      <c r="TC4">
+        <v>1.8812578272874401E-3</v>
+      </c>
+      <c r="TD4">
+        <v>6.6141439394412204E-3</v>
+      </c>
+      <c r="TE4">
+        <v>5.5252161106313204E-3</v>
+      </c>
+      <c r="TF4">
+        <v>4.3339239965268801E-3</v>
+      </c>
+      <c r="TG4">
+        <v>2.2961886843168699E-3</v>
+      </c>
+      <c r="TH4">
+        <v>2.4696798638536199E-3</v>
+      </c>
+      <c r="TI4">
+        <v>1.93412273442993E-3</v>
+      </c>
+      <c r="TJ4">
+        <v>4.4796667417912701E-3</v>
+      </c>
+      <c r="TK4">
+        <v>-1</v>
+      </c>
+      <c r="TL4">
+        <v>-1</v>
+      </c>
+      <c r="TM4">
+        <v>3.9649774885420703E-3</v>
+      </c>
+      <c r="TN4">
+        <v>9.9670587145029802E-3</v>
+      </c>
+      <c r="TO4">
+        <v>3.5513079989383202E-3</v>
+      </c>
+      <c r="TP4">
+        <v>4.4887100689852402E-3</v>
+      </c>
+      <c r="TQ4">
+        <v>1.8908429779128501E-3</v>
+      </c>
+      <c r="TR4">
+        <v>2.1331405330146901E-3</v>
+      </c>
+      <c r="TS4">
+        <v>3.4981150377794801E-3</v>
+      </c>
+      <c r="TT4">
+        <v>8.2981928916872495E-3</v>
+      </c>
+      <c r="TU4">
+        <v>4.6544567543498902E-3</v>
+      </c>
+      <c r="TV4">
+        <v>1.01638285010303E-2</v>
+      </c>
+      <c r="TW4">
+        <v>-1</v>
+      </c>
+      <c r="TX4">
+        <v>2.2045549941291502E-3</v>
+      </c>
+      <c r="TY4">
+        <v>3.3751088047922501E-3</v>
+      </c>
+      <c r="TZ4">
+        <v>5.17455480768366E-3</v>
+      </c>
+      <c r="UA4">
+        <v>2.0696281146545901E-3</v>
+      </c>
+      <c r="UB4">
+        <v>4.4457482041333199E-3</v>
+      </c>
+      <c r="UC4">
+        <v>3.14883552597948E-3</v>
+      </c>
+      <c r="UD4">
+        <v>4.1867115745752199E-3</v>
+      </c>
+      <c r="UE4">
+        <v>5.5413699305784702E-3</v>
+      </c>
+      <c r="UF4">
+        <v>5.8079675103817697E-3</v>
+      </c>
+      <c r="UG4">
+        <v>1.0573207233948801E-2</v>
+      </c>
+      <c r="UH4">
+        <v>2.7473032314479801E-3</v>
+      </c>
+      <c r="UI4">
+        <v>-1</v>
+      </c>
+      <c r="UJ4">
+        <v>2.9233617729439E-3</v>
+      </c>
+      <c r="UK4">
+        <v>2.8660171165856502E-3</v>
+      </c>
+      <c r="UL4">
+        <v>2.3187863641024199E-3</v>
+      </c>
+      <c r="UM4">
+        <v>1.64571943918282E-3</v>
+      </c>
+      <c r="UN4">
+        <v>3.1677925904658802E-3</v>
+      </c>
+      <c r="UO4">
+        <v>5.2495302744865503E-3</v>
+      </c>
+      <c r="UP4">
+        <v>4.7284102190830396E-3</v>
+      </c>
+      <c r="UQ4">
+        <v>3.6189701856341201E-3</v>
+      </c>
+      <c r="UR4">
+        <v>1.4668739953696199E-3</v>
+      </c>
+      <c r="US4">
+        <v>3.5240920734936699E-3</v>
+      </c>
+      <c r="UT4">
+        <v>3.0815727160147101E-3</v>
+      </c>
+      <c r="UU4">
+        <v>8.16721631509729E-3</v>
+      </c>
+      <c r="UV4">
+        <v>-1</v>
+      </c>
+      <c r="UW4">
+        <v>4.3840416808862198E-3</v>
+      </c>
+      <c r="UX4">
+        <v>5.4411959196237801E-3</v>
+      </c>
+      <c r="UY4">
+        <v>3.9413998587526601E-3</v>
+      </c>
+      <c r="UZ4">
+        <v>4.3251718017566403E-3</v>
+      </c>
+      <c r="VA4">
+        <v>1.01128814883338E-3</v>
+      </c>
+      <c r="VB4">
+        <v>2.7045908841646302E-3</v>
+      </c>
+      <c r="VC4">
+        <v>5.2603491372375001E-3</v>
+      </c>
+      <c r="VD4">
+        <v>4.4792611108252604E-3</v>
+      </c>
+      <c r="VE4">
+        <v>7.1140851091983101E-3</v>
+      </c>
+      <c r="VF4">
+        <v>2.2286970018583901E-3</v>
+      </c>
+      <c r="VG4">
+        <v>-1</v>
+      </c>
+      <c r="VH4">
+        <v>3.1237706614436101E-3</v>
+      </c>
+      <c r="VI4">
+        <v>3.8012611763551399E-3</v>
+      </c>
+      <c r="VJ4">
+        <v>5.3269027830831397E-3</v>
+      </c>
+      <c r="VK4">
+        <v>2.9637238235926001E-3</v>
+      </c>
+      <c r="VL4">
+        <v>8.9425689277169498E-3</v>
+      </c>
+      <c r="VM4">
+        <v>6.5683408160352001E-3</v>
+      </c>
+      <c r="VN4">
+        <v>-1</v>
+      </c>
+      <c r="VO4">
+        <v>1.37145674093677E-2</v>
+      </c>
+      <c r="VP4">
+        <v>4.2183119880370304E-3</v>
+      </c>
+      <c r="VQ4">
+        <v>2.4017709684893899E-3</v>
+      </c>
+      <c r="VR4">
+        <v>3.9314606529926802E-3</v>
+      </c>
+      <c r="VS4">
+        <v>7.8767122248938493E-3</v>
+      </c>
+      <c r="VT4">
+        <v>3.2382426782475702E-3</v>
+      </c>
+      <c r="VU4">
+        <v>9.0147948021132799E-3</v>
+      </c>
+      <c r="VV4">
+        <v>1.3408739956109E-2</v>
+      </c>
+      <c r="VW4">
+        <v>7.7512652606219201E-3</v>
+      </c>
+      <c r="VX4">
+        <v>-1</v>
+      </c>
+      <c r="VY4">
+        <v>1.59441200714749E-3</v>
+      </c>
+      <c r="VZ4">
+        <v>6.1115462696396203E-3</v>
+      </c>
+      <c r="WA4">
+        <v>7.8253941311773705E-3</v>
+      </c>
+      <c r="WB4">
+        <v>6.06438790283484E-3</v>
+      </c>
+      <c r="WC4">
+        <v>3.8326593299839299E-3</v>
+      </c>
+      <c r="WD4">
+        <v>4.1902827001860004E-3</v>
+      </c>
+      <c r="WE4" s="1">
+        <v>358939388877088</v>
+      </c>
+      <c r="WF4">
+        <v>5.9783175697540403E-3</v>
+      </c>
+      <c r="WG4">
+        <v>2.2018340600758802E-3</v>
+      </c>
+      <c r="WH4">
+        <v>7.9410578737424391E-3</v>
+      </c>
+      <c r="WI4">
+        <v>7.5509973728569999E-3</v>
+      </c>
+      <c r="WJ4">
+        <v>6.7057669064729897E-3</v>
+      </c>
+      <c r="WK4">
+        <v>3.82449786710084E-3</v>
+      </c>
+      <c r="WL4">
+        <v>2.7710146348232699E-3</v>
+      </c>
+      <c r="WM4">
+        <v>5.1243713279527196E-3</v>
+      </c>
+      <c r="WN4">
+        <v>2.8701988959498E-3</v>
+      </c>
+      <c r="WO4">
+        <v>2.1012466241950999E-3</v>
+      </c>
+      <c r="WP4">
+        <v>4.26664054392124E-3</v>
+      </c>
+      <c r="WQ4">
+        <v>4.4262147626985297E-3</v>
+      </c>
+      <c r="WR4">
+        <v>6.5980517457014196E-3</v>
+      </c>
+      <c r="WS4">
+        <v>1.01887748356845E-2</v>
+      </c>
+      <c r="WT4">
+        <v>6.5942452425370602E-3</v>
+      </c>
+      <c r="WU4">
+        <v>2.2519216767156098E-3</v>
+      </c>
+      <c r="WV4">
+        <v>4.4129171848679002E-3</v>
+      </c>
+      <c r="WW4">
+        <v>3.2053974099058098E-3</v>
+      </c>
+      <c r="WX4">
+        <v>5.6787092081324302E-3</v>
+      </c>
+      <c r="WY4">
+        <v>1.66247783923833E-3</v>
+      </c>
+      <c r="WZ4">
+        <v>1.1515067461243599E-2</v>
+      </c>
+      <c r="XA4">
+        <v>3.75779514359962E-3</v>
+      </c>
+      <c r="XB4">
+        <v>4.8917394554185501E-3</v>
+      </c>
+      <c r="XC4">
+        <v>3.7886299275941E-3</v>
+      </c>
+      <c r="XD4">
+        <v>8.9990084453889802E-3</v>
+      </c>
+      <c r="XE4">
+        <v>7.3705350745215297E-3</v>
+      </c>
+      <c r="XF4">
+        <v>-1</v>
+      </c>
+      <c r="XG4">
+        <v>2.3660589768828401E-3</v>
+      </c>
+      <c r="XH4">
+        <v>7.36713728584747E-3</v>
+      </c>
+      <c r="XI4">
+        <v>4.9018394850443604E-3</v>
+      </c>
+      <c r="XJ4">
+        <v>3.0764343891294199E-3</v>
+      </c>
+      <c r="XK4">
+        <v>1.1237325933374899E-3</v>
+      </c>
+      <c r="XL4">
+        <v>1.6251657139832901E-3</v>
+      </c>
+      <c r="XM4">
+        <v>4.5583888759140002E-3</v>
+      </c>
+      <c r="XN4">
+        <v>4.3218219025165702E-3</v>
+      </c>
+      <c r="XO4">
+        <v>1.7896421590742799E-3</v>
+      </c>
+      <c r="XP4">
+        <v>2.4359022628086201E-3</v>
+      </c>
+      <c r="XQ4">
+        <v>2.5125060754727199E-3</v>
+      </c>
+      <c r="XR4">
+        <v>4.0314095642623397E-3</v>
+      </c>
+      <c r="XS4">
+        <v>7.9147668257753198E-3</v>
+      </c>
+      <c r="XT4">
+        <v>2.1722371641174202E-3</v>
+      </c>
+      <c r="XU4">
+        <v>2.2188182782627501E-3</v>
+      </c>
+      <c r="XV4">
+        <v>3.74996134556287E-3</v>
+      </c>
+      <c r="XW4">
+        <v>5.5733409956081302E-3</v>
+      </c>
+      <c r="XX4">
+        <v>4.7215616680489399E-3</v>
+      </c>
+      <c r="XY4">
+        <v>1.2976807874972201E-3</v>
+      </c>
+      <c r="XZ4">
+        <v>2.31030651637563E-3</v>
+      </c>
+      <c r="YA4">
+        <v>5.36640507036148E-3</v>
+      </c>
+      <c r="YB4">
+        <v>7.9758110845390799E-3</v>
+      </c>
+      <c r="YC4">
+        <v>1.95036939330744E-3</v>
+      </c>
+      <c r="YD4">
+        <v>8.46420149968149E-3</v>
+      </c>
+      <c r="YE4">
+        <v>2.67384086133366E-3</v>
+      </c>
+      <c r="YF4">
+        <v>4.2235940085331297E-3</v>
+      </c>
+      <c r="YG4">
+        <v>1.7948217188442899E-3</v>
+      </c>
+      <c r="YH4">
+        <v>1.5550592450323899E-3</v>
+      </c>
+      <c r="YI4">
+        <v>1.44240097198679E-3</v>
+      </c>
+      <c r="YJ4">
+        <v>2.35052166135216E-3</v>
+      </c>
+      <c r="YK4">
+        <v>2.6851032005030398E-3</v>
+      </c>
+      <c r="YL4">
+        <v>4.2001229034041203E-3</v>
+      </c>
+      <c r="YM4">
+        <v>3.0923809888436901E-3</v>
+      </c>
+      <c r="YN4">
+        <v>5.7024256065377702E-3</v>
+      </c>
+      <c r="YO4">
+        <v>2.19616047721351E-3</v>
+      </c>
+      <c r="YP4">
+        <v>4.9343009583530601E-3</v>
+      </c>
+      <c r="YQ4">
+        <v>4.4072136921063498E-3</v>
+      </c>
+      <c r="YR4">
+        <v>3.7944718279168499E-4</v>
+      </c>
+      <c r="YS4">
+        <v>5.0105784910531902E-3</v>
+      </c>
+      <c r="YT4">
+        <v>3.9687422039629801E-3</v>
+      </c>
+      <c r="YU4">
+        <v>3.55035814250483E-3</v>
+      </c>
+      <c r="YV4">
+        <v>-1</v>
+      </c>
+      <c r="YW4">
+        <v>-1</v>
+      </c>
+      <c r="YX4" s="1">
+        <v>200898090999060</v>
+      </c>
+      <c r="YY4">
+        <v>2.4952550928852599E-3</v>
+      </c>
+      <c r="YZ4">
+        <v>5.3597973129136198E-3</v>
+      </c>
+      <c r="ZA4">
+        <v>3.2886514619600701E-3</v>
+      </c>
+      <c r="ZB4">
+        <v>1.9839476645983302E-3</v>
+      </c>
+      <c r="ZC4">
+        <v>1.4538363966965799E-3</v>
+      </c>
+      <c r="ZD4">
+        <v>5.28919012067945E-3</v>
+      </c>
+      <c r="ZE4">
+        <v>5.5412098910168298E-3</v>
+      </c>
+      <c r="ZF4">
+        <v>2.5548585051934098E-3</v>
+      </c>
+      <c r="ZG4">
+        <v>2.8561108717068402E-3</v>
+      </c>
+      <c r="ZH4">
+        <v>6.2168913711899004E-3</v>
+      </c>
+      <c r="ZI4">
+        <v>-1</v>
+      </c>
+      <c r="ZJ4">
+        <v>5.9597631531684197E-3</v>
+      </c>
+      <c r="ZK4">
+        <v>4.09204226473181E-3</v>
+      </c>
+      <c r="ZL4">
+        <v>3.8277951440772598E-3</v>
+      </c>
+      <c r="ZM4">
+        <v>2.8116081230088802E-3</v>
+      </c>
+      <c r="ZN4">
+        <v>1.3275989853349401E-3</v>
+      </c>
+      <c r="ZO4">
+        <v>2.9259611562460798E-3</v>
+      </c>
+      <c r="ZP4">
+        <v>-1</v>
+      </c>
+      <c r="ZQ4">
+        <v>2.0603687770693502E-3</v>
+      </c>
+      <c r="ZR4">
+        <v>1.6898010040412501E-2</v>
+      </c>
+      <c r="ZS4">
+        <v>6.9229781886868203E-3</v>
+      </c>
+      <c r="ZT4">
+        <v>1.04708601920782E-3</v>
+      </c>
+      <c r="ZU4">
+        <v>5.8788094753187596E-3</v>
+      </c>
+      <c r="ZV4">
+        <v>3.1861806031450298E-3</v>
+      </c>
+      <c r="ZW4">
+        <v>3.9636169216376999E-3</v>
+      </c>
+      <c r="ZX4">
+        <v>2.3513884432100202E-3</v>
+      </c>
+      <c r="ZY4">
+        <v>1.76165702083253E-2</v>
+      </c>
+      <c r="ZZ4">
+        <v>6.3524886057653197E-3</v>
+      </c>
+      <c r="AAA4">
+        <v>-1</v>
+      </c>
+      <c r="AAB4">
+        <v>-1</v>
+      </c>
+      <c r="AAC4">
+        <v>1.39498669926706E-2</v>
+      </c>
+      <c r="AAD4">
+        <v>5.7013763730378404E-3</v>
+      </c>
+      <c r="AAE4">
+        <v>9.8925966219621398E-3</v>
+      </c>
+      <c r="AAF4">
+        <v>2.23932107888618E-3</v>
+      </c>
+      <c r="AAG4">
+        <v>5.39554485967874E-3</v>
+      </c>
+      <c r="AAH4">
+        <v>3.5074027714216099E-3</v>
+      </c>
+      <c r="AAI4">
+        <v>-1</v>
+      </c>
+      <c r="AAJ4">
+        <v>2.0087848059233099E-3</v>
+      </c>
+      <c r="AAK4">
+        <v>-1</v>
+      </c>
+      <c r="AAL4">
+        <v>5.2430220130718196E-3</v>
+      </c>
+      <c r="AAM4">
+        <v>7.2012056485010198E-3</v>
+      </c>
+      <c r="AAN4">
+        <v>3.2704067983367899E-3</v>
+      </c>
+      <c r="AAO4">
+        <v>6.6710989116420304E-3</v>
+      </c>
+      <c r="AAP4">
+        <v>2.0029701753113598E-3</v>
+      </c>
+      <c r="AAQ4">
+        <v>3.02163701722615E-3</v>
+      </c>
+      <c r="AAR4">
+        <v>-1</v>
+      </c>
+      <c r="AAS4">
+        <v>2.0022510725276701E-3</v>
+      </c>
+      <c r="AAT4">
+        <v>2.0389698840874602E-3</v>
+      </c>
+      <c r="AAU4">
+        <v>5.0454953675981903E-3</v>
+      </c>
+      <c r="AAV4">
+        <v>2.8833481692373802E-3</v>
+      </c>
+      <c r="AAW4">
+        <v>-2</v>
+      </c>
+      <c r="AAX4">
+        <v>3.7291851769464201E-3</v>
+      </c>
+      <c r="AAY4">
+        <v>3.2666015840936702E-3</v>
+      </c>
+      <c r="AAZ4">
+        <v>4.9150098352237596E-3</v>
+      </c>
+      <c r="ABA4">
+        <v>1.7835430825633601E-3</v>
+      </c>
+      <c r="ABB4">
+        <v>3.71926102680117E-3</v>
+      </c>
+      <c r="ABC4">
+        <v>2.8544999428599502E-3</v>
+      </c>
+      <c r="ABD4">
+        <v>2.8343554372066899E-3</v>
+      </c>
+      <c r="ABE4">
+        <v>6.7758460714302197E-3</v>
+      </c>
+      <c r="ABF4">
+        <v>2.2685463535134201E-3</v>
+      </c>
+      <c r="ABG4">
+        <v>9.5988164090479201E-3</v>
+      </c>
+      <c r="ABH4">
+        <v>4.0154143108013301E-3</v>
+      </c>
+      <c r="ABI4">
+        <v>1.9284681338236501E-3</v>
+      </c>
+      <c r="ABJ4">
+        <v>1.96559497850805E-3</v>
+      </c>
+      <c r="ABK4">
+        <v>4.3628184011768904E-3</v>
+      </c>
+      <c r="ABL4">
+        <v>1.35798091803962E-3</v>
+      </c>
+      <c r="ABM4">
+        <v>2.5508402721920401E-3</v>
+      </c>
+      <c r="ABN4">
+        <v>3.1076147780006299E-3</v>
+      </c>
+      <c r="ABO4">
+        <v>5.6319478303919002E-3</v>
+      </c>
+      <c r="ABP4">
+        <v>6.4310141144159998E-3</v>
+      </c>
+      <c r="ABQ4">
+        <v>4.8194475640391402E-3</v>
+      </c>
+      <c r="ABR4">
+        <v>1.0655722856342999E-2</v>
+      </c>
+      <c r="ABS4">
+        <v>7.9649854088230405E-3</v>
+      </c>
+      <c r="ABT4">
+        <v>3.5663233704127102E-3</v>
+      </c>
+      <c r="ABU4">
+        <v>2.8035966489299798E-3</v>
+      </c>
+      <c r="ABV4">
+        <v>-1</v>
+      </c>
+      <c r="ABW4">
+        <v>1.10010508334283E-2</v>
+      </c>
+      <c r="ABX4">
+        <v>6.3066093002281101E-3</v>
+      </c>
+      <c r="ABY4">
+        <v>1.56764660238937E-2</v>
+      </c>
+      <c r="ABZ4">
+        <v>3.28729836136727E-3</v>
+      </c>
+      <c r="ACA4">
+        <v>2.4959312994378802E-3</v>
+      </c>
+      <c r="ACB4">
+        <v>2.4366364467973498E-3</v>
+      </c>
+      <c r="ACC4">
+        <v>3.0364612061888501E-3</v>
+      </c>
+      <c r="ACD4">
+        <v>5.2774878244205899E-3</v>
+      </c>
+      <c r="ACE4">
+        <v>-1</v>
+      </c>
+      <c r="ACF4">
+        <v>4.7964100313645499E-3</v>
+      </c>
+      <c r="ACG4">
+        <v>3.3799919185527202E-3</v>
+      </c>
+      <c r="ACH4">
+        <v>4.52329299317641E-3</v>
+      </c>
+      <c r="ACI4">
+        <v>3.4780596473874001E-3</v>
+      </c>
+      <c r="ACJ4">
+        <v>3.1361197787656602E-3</v>
+      </c>
+      <c r="ACK4">
+        <v>-1</v>
+      </c>
+      <c r="ACL4">
+        <v>4.1899778235038902E-3</v>
+      </c>
+      <c r="ACM4">
+        <v>5.1391660494660603E-3</v>
+      </c>
+      <c r="ACN4">
+        <v>9.4260411630358205E-3</v>
+      </c>
+      <c r="ACO4">
+        <v>5.9706000091150199E-3</v>
+      </c>
+      <c r="ACP4">
+        <v>3.5008649647575302E-3</v>
+      </c>
+      <c r="ACQ4">
+        <v>8.0009137205960795E-3</v>
+      </c>
+      <c r="ACR4">
+        <v>5.81510242881462E-3</v>
+      </c>
+      <c r="ACS4">
+        <v>5.0705061841237603E-3</v>
+      </c>
+      <c r="ACT4">
+        <v>-1</v>
+      </c>
+      <c r="ACU4">
+        <v>4.2374923531658696E-3</v>
+      </c>
+      <c r="ACV4">
+        <v>3.5709905621344701E-3</v>
+      </c>
+      <c r="ACW4">
+        <v>1.55540522805557E-3</v>
+      </c>
+      <c r="ACX4">
+        <v>9.8143026583453492E-3</v>
+      </c>
+      <c r="ACY4">
+        <v>2.9346402302971798E-3</v>
+      </c>
+      <c r="ACZ4">
+        <v>2.8757454685221602E-3</v>
+      </c>
+      <c r="ADA4">
+        <v>-1</v>
+      </c>
+      <c r="ADB4">
+        <v>2.0124388952771602E-3</v>
+      </c>
+      <c r="ADC4">
+        <v>6.0129186163447304E-3</v>
+      </c>
+      <c r="ADD4">
+        <v>1.5513810993250301E-3</v>
+      </c>
+      <c r="ADE4">
+        <v>-1</v>
+      </c>
+      <c r="ADF4">
+        <v>4.3941051307265604E-3</v>
+      </c>
+      <c r="ADG4">
+        <v>4.3337703225771696E-3</v>
+      </c>
+      <c r="ADH4">
+        <v>6.1738198770170697E-3</v>
+      </c>
+      <c r="ADI4">
+        <v>7.8151830771294693E-3</v>
+      </c>
+      <c r="ADJ4">
+        <v>1.07113476478668E-2</v>
+      </c>
+      <c r="ADK4">
+        <v>-1</v>
+      </c>
+      <c r="ADL4">
+        <v>2.0856648532943702E-3</v>
+      </c>
+      <c r="ADM4">
+        <v>2.1157892428420302E-3</v>
+      </c>
+      <c r="ADN4">
+        <v>4.9725451152345798E-3</v>
+      </c>
+      <c r="ADO4">
+        <v>6.3635128990294802E-3</v>
+      </c>
+      <c r="ADP4">
+        <v>3.5063372673341201E-3</v>
+      </c>
+      <c r="ADQ4">
+        <v>5.4485340334299304E-3</v>
+      </c>
+      <c r="ADR4">
+        <v>6.4526011065649501E-3</v>
+      </c>
+      <c r="ADS4">
+        <v>-1</v>
+      </c>
+      <c r="ADT4">
+        <v>2.9838705263601699E-3</v>
+      </c>
+      <c r="ADU4">
+        <v>7.0511774269797801E-3</v>
+      </c>
+      <c r="ADV4">
+        <v>1.1067723932528001E-2</v>
+      </c>
+      <c r="ADW4">
+        <v>1.3963221847318301E-3</v>
+      </c>
+      <c r="ADX4">
+        <v>5.6434489661634996E-3</v>
+      </c>
+      <c r="ADY4">
+        <v>5.21057038738731E-3</v>
+      </c>
+      <c r="ADZ4">
+        <v>-1</v>
+      </c>
+      <c r="AEA4">
+        <v>4.6032010749445804E-3</v>
+      </c>
+      <c r="AEB4">
+        <v>8.3919792145655805E-4</v>
+      </c>
+      <c r="AEC4">
+        <v>3.8125112343761502E-3</v>
+      </c>
+      <c r="AED4">
+        <v>-1</v>
+      </c>
+      <c r="AEE4">
+        <v>1.0172511300265601E-3</v>
+      </c>
+      <c r="AEF4">
+        <v>8.0017560324100404E-3</v>
+      </c>
+      <c r="AEG4">
+        <v>7.41681806536321E-3</v>
+      </c>
+      <c r="AEH4">
+        <v>-1</v>
+      </c>
+      <c r="AEI4">
+        <v>-1</v>
+      </c>
+      <c r="AEJ4">
+        <v>2.9083091375661399E-3</v>
+      </c>
+      <c r="AEK4">
+        <v>4.5662518701962496E-3</v>
+      </c>
+      <c r="AEL4">
+        <v>3.48361900062736E-3</v>
+      </c>
+      <c r="AEM4">
+        <v>5.8871506221343101E-3</v>
+      </c>
+      <c r="AEN4">
+        <v>5.0413228078155002E-3</v>
+      </c>
+      <c r="AEO4">
+        <v>4.6135319729015698E-3</v>
+      </c>
+      <c r="AEP4">
+        <v>2.61530605144214E-3</v>
+      </c>
+      <c r="AEQ4">
+        <v>5.3634211931550798E-3</v>
+      </c>
+      <c r="AER4">
+        <v>4.1164035368204399E-3</v>
+      </c>
+      <c r="AES4">
+        <v>6.1247684251785599E-3</v>
+      </c>
+      <c r="AET4">
+        <v>1.56071888180137E-3</v>
+      </c>
+      <c r="AEU4">
+        <v>6.3646303606853596E-3</v>
+      </c>
+      <c r="AEV4">
+        <v>1.06773784442857E-2</v>
+      </c>
+      <c r="AEW4">
+        <v>5.8198508822131104E-3</v>
+      </c>
+      <c r="AEX4">
+        <v>6.8633057720194901E-3</v>
+      </c>
+      <c r="AEY4">
+        <v>1.0469022965769799E-3</v>
+      </c>
+      <c r="AEZ4">
+        <v>2.35942380479517E-3</v>
+      </c>
+      <c r="AFA4">
+        <v>5.6409514531329703E-3</v>
+      </c>
+      <c r="AFB4">
+        <v>2.3530180426627602E-3</v>
+      </c>
+      <c r="AFC4">
+        <v>3.90319409204196E-3</v>
+      </c>
+      <c r="AFD4">
+        <v>7.10817994825577E-3</v>
+      </c>
+      <c r="AFE4">
+        <v>3.77672097669054E-3</v>
+      </c>
+      <c r="AFF4">
+        <v>1.26643422069086E-3</v>
+      </c>
+      <c r="AFG4">
+        <v>3.36587500864603E-3</v>
+      </c>
+      <c r="AFH4">
+        <v>1.8811207285392101E-3</v>
+      </c>
+      <c r="AFI4">
+        <v>5.15298598285627E-3</v>
+      </c>
+      <c r="AFJ4">
+        <v>2.9609939012982E-3</v>
+      </c>
+      <c r="AFK4">
+        <v>6.1545303446623803E-3</v>
+      </c>
+      <c r="AFL4">
+        <v>3.27129787538722E-3</v>
+      </c>
+      <c r="AFM4">
+        <v>3.0606102617789098E-3</v>
+      </c>
+      <c r="AFN4">
+        <v>3.7870734353379898E-3</v>
+      </c>
+      <c r="AFO4">
+        <v>6.8521142271920398E-3</v>
+      </c>
+      <c r="AFP4">
+        <v>5.8207364251836704E-3</v>
+      </c>
+      <c r="AFQ4">
+        <v>-2</v>
+      </c>
+      <c r="AFR4">
+        <v>2.7002869846608499E-3</v>
+      </c>
+      <c r="AFS4" s="1">
+        <v>205888462149512</v>
+      </c>
+      <c r="AFT4">
+        <v>2.6554590310331702E-3</v>
+      </c>
+      <c r="AFU4">
+        <v>3.4904497817817501E-3</v>
+      </c>
+      <c r="AFV4">
+        <v>-1</v>
+      </c>
+      <c r="AFW4">
+        <v>1.5587093483606399E-3</v>
+      </c>
+      <c r="AFX4">
+        <v>2.5840338217064801E-3</v>
+      </c>
+      <c r="AFY4">
+        <v>6.4309494983349601E-3</v>
+      </c>
+      <c r="AFZ4">
+        <v>-1</v>
+      </c>
+      <c r="AGA4">
+        <v>5.5323521565127402E-3</v>
+      </c>
+      <c r="AGB4">
+        <v>7.2246288211674503E-3</v>
+      </c>
+      <c r="AGC4">
+        <v>4.7843945562842504E-3</v>
+      </c>
+      <c r="AGD4">
+        <v>6.9919244664333902E-3</v>
+      </c>
+      <c r="AGE4">
+        <v>2.2011192606891101E-3</v>
+      </c>
+      <c r="AGF4">
+        <v>3.00077488316185E-3</v>
+      </c>
+      <c r="AGG4">
+        <v>-1</v>
+      </c>
+      <c r="AGH4">
+        <v>3.8261907527573102E-3</v>
+      </c>
+      <c r="AGI4">
+        <v>3.8726856934532899E-3</v>
+      </c>
+      <c r="AGJ4">
+        <v>3.8009760160422098E-3</v>
+      </c>
+      <c r="AGK4">
+        <v>1.9054774202777399E-3</v>
+      </c>
+      <c r="AGL4">
+        <v>3.7221190521357999E-3</v>
+      </c>
+      <c r="AGM4">
+        <v>9.6029530194676194E-3</v>
+      </c>
+      <c r="AGN4">
+        <v>5.5153826951460502E-3</v>
+      </c>
+      <c r="AGO4">
+        <v>4.6862360089546001E-4</v>
+      </c>
+      <c r="AGP4">
+        <v>1.1049339478267301E-2</v>
+      </c>
+      <c r="AGQ4">
+        <v>6.9959016519785403E-3</v>
+      </c>
+      <c r="AGR4">
+        <v>3.2241088384141999E-3</v>
+      </c>
+      <c r="AGS4">
+        <v>1.69256390550532E-3</v>
+      </c>
+      <c r="AGT4">
+        <v>1.762949170339E-3</v>
+      </c>
+      <c r="AGU4">
+        <v>5.8609711018694603E-3</v>
+      </c>
+      <c r="AGV4" s="1">
+        <v>182516334188946</v>
+      </c>
+      <c r="AGW4">
+        <v>5.2015141307682504E-3</v>
+      </c>
+      <c r="AGX4">
+        <v>2.3253088399653602E-3</v>
+      </c>
+      <c r="AGY4">
+        <v>2.3097502550544998E-3</v>
+      </c>
+      <c r="AGZ4">
+        <v>5.3813674822984301E-3</v>
+      </c>
+      <c r="AHA4">
+        <v>1.1729723986449599E-3</v>
+      </c>
+      <c r="AHB4">
+        <v>6.72090315858947E-3</v>
+      </c>
+      <c r="AHC4">
+        <v>-1</v>
+      </c>
+      <c r="AHD4">
+        <v>5.4019035127212398E-4</v>
+      </c>
+      <c r="AHE4">
+        <v>5.0532076097251702E-3</v>
+      </c>
+      <c r="AHF4">
+        <v>3.4818380901956202E-3</v>
+      </c>
+      <c r="AHG4">
+        <v>3.2537600826903798E-3</v>
+      </c>
+      <c r="AHH4">
+        <v>1.78626190296372E-3</v>
+      </c>
+      <c r="AHI4">
+        <v>2.5854711049508199E-3</v>
+      </c>
+      <c r="AHJ4">
+        <v>-1</v>
+      </c>
+      <c r="AHK4">
+        <v>5.5148518382330302E-3</v>
+      </c>
+      <c r="AHL4">
+        <v>6.3921564910218304E-3</v>
+      </c>
+      <c r="AHM4">
+        <v>5.4577061457709904E-3</v>
+      </c>
+      <c r="AHN4">
+        <v>-1</v>
+      </c>
+      <c r="AHO4">
+        <v>5.5719498557375204E-3</v>
+      </c>
+      <c r="AHP4">
+        <v>1.39478841460652E-3</v>
+      </c>
+      <c r="AHQ4">
+        <v>1.9472337899508799E-3</v>
+      </c>
+      <c r="AHR4">
+        <v>1.64588129003098E-3</v>
+      </c>
+      <c r="AHS4">
+        <v>1.45238876010586E-3</v>
+      </c>
+      <c r="AHT4">
+        <v>4.0144261039934404E-3</v>
+      </c>
+      <c r="AHU4">
+        <v>4.4190481563920201E-3</v>
+      </c>
+      <c r="AHV4">
+        <v>5.3763358563656497E-3</v>
+      </c>
+      <c r="AHW4">
+        <v>-1</v>
+      </c>
+      <c r="AHX4">
+        <v>2.58667005352933E-3</v>
+      </c>
+      <c r="AHY4">
+        <v>-1</v>
+      </c>
+      <c r="AHZ4">
+        <v>5.63933752518071E-3</v>
+      </c>
+      <c r="AIA4">
+        <v>1.9967991530696599E-3</v>
+      </c>
+      <c r="AIB4">
+        <v>2.2969193826488602E-3</v>
+      </c>
+      <c r="AIC4">
+        <v>2.1649361510101398E-3</v>
+      </c>
+      <c r="AID4">
+        <v>5.3825699988853497E-3</v>
+      </c>
+      <c r="AIE4">
+        <v>-1</v>
+      </c>
+      <c r="AIF4">
+        <v>3.84475857222133E-3</v>
+      </c>
+      <c r="AIG4">
+        <v>8.1963002494688103E-3</v>
+      </c>
+      <c r="AIH4">
+        <v>5.88555956654552E-3</v>
+      </c>
+      <c r="AII4">
+        <v>6.6194019410299402E-3</v>
+      </c>
+      <c r="AIJ4">
+        <v>3.7210059352177798E-3</v>
+      </c>
+      <c r="AIK4">
+        <v>5.8882655720410796E-3</v>
+      </c>
+      <c r="AIL4">
+        <v>3.4244262828567701E-3</v>
+      </c>
+      <c r="AIM4">
+        <v>5.74529183641166E-3</v>
+      </c>
+      <c r="AIN4">
+        <v>4.1066756927108598E-3</v>
+      </c>
+      <c r="AIO4">
+        <v>1.90598237389384E-3</v>
+      </c>
+      <c r="AIP4">
+        <v>2.50205985144366E-3</v>
+      </c>
+      <c r="AIQ4">
+        <v>5.4535092480214502E-3</v>
+      </c>
+      <c r="AIR4">
+        <v>-1</v>
+      </c>
+      <c r="AIS4">
+        <v>7.2558445784730698E-3</v>
+      </c>
+      <c r="AIT4">
+        <v>3.1741728305631398E-3</v>
+      </c>
+      <c r="AIU4">
+        <v>1.00836707038855E-2</v>
+      </c>
+      <c r="AIV4">
+        <v>3.99439738499008E-3</v>
+      </c>
+      <c r="AIW4">
+        <v>3.83650819113756E-3</v>
+      </c>
+      <c r="AIX4">
+        <v>4.6051010529931198E-3</v>
+      </c>
+      <c r="AIY4">
+        <v>4.2944862249612598E-3</v>
+      </c>
+      <c r="AIZ4" s="1">
+        <v>651593228293325</v>
+      </c>
+      <c r="AJA4">
+        <v>2.44678430262594E-3</v>
+      </c>
+      <c r="AJB4">
+        <v>4.2999045989181202E-3</v>
+      </c>
+      <c r="AJC4">
+        <v>-1</v>
+      </c>
+      <c r="AJD4">
+        <v>-1</v>
+      </c>
+      <c r="AJE4">
+        <v>1.0877422460445201E-2</v>
+      </c>
+      <c r="AJF4">
+        <v>4.2958209084328703E-3</v>
+      </c>
+      <c r="AJG4">
+        <v>4.1943654768701599E-3</v>
+      </c>
+      <c r="AJH4">
+        <v>8.2388661344908604E-3</v>
+      </c>
+      <c r="AJI4">
+        <v>5.1042664021052403E-3</v>
+      </c>
+      <c r="AJJ4">
+        <v>2.2702237409618401E-3</v>
+      </c>
+      <c r="AJK4">
+        <v>-1</v>
+      </c>
+      <c r="AJL4">
+        <v>6.39733199006296E-4</v>
+      </c>
+      <c r="AJM4">
+        <v>5.9047850220274598E-3</v>
+      </c>
+      <c r="AJN4">
+        <v>4.1782973350239496E-3</v>
+      </c>
+      <c r="AJO4">
+        <v>7.7403304928984904E-3</v>
+      </c>
+      <c r="AJP4">
+        <v>5.6955022436532901E-3</v>
+      </c>
+      <c r="AJQ4">
+        <v>5.21936692764871E-3</v>
+      </c>
+      <c r="AJR4">
+        <v>2.2341747723937499E-3</v>
+      </c>
+      <c r="AJS4">
+        <v>3.8827270451729599E-3</v>
+      </c>
+      <c r="AJT4">
+        <v>-1</v>
+      </c>
+      <c r="AJU4">
+        <v>4.8304044403501001E-3</v>
+      </c>
+      <c r="AJV4">
+        <v>4.82872917979053E-3</v>
+      </c>
+      <c r="AJW4">
+        <v>7.6505650936324202E-3</v>
+      </c>
+      <c r="AJX4">
+        <v>2.1141163630186499E-3</v>
+      </c>
+      <c r="AJY4">
+        <v>-1</v>
+      </c>
+      <c r="AJZ4">
+        <v>4.5021345986307002E-3</v>
+      </c>
+      <c r="AKA4">
+        <v>6.4333687212886296E-3</v>
+      </c>
+      <c r="AKB4">
+        <v>1.0998128828540199E-2</v>
+      </c>
+      <c r="AKC4">
+        <v>4.8969904098486901E-3</v>
+      </c>
+      <c r="AKD4">
+        <v>2.29586768141688E-3</v>
+      </c>
+      <c r="AKE4">
+        <v>1.101251306353E-3</v>
+      </c>
+      <c r="AKF4">
+        <v>-1</v>
+      </c>
+      <c r="AKG4">
+        <v>4.0191214550825997E-3</v>
+      </c>
+      <c r="AKH4">
+        <v>4.82377715385531E-3</v>
+      </c>
+      <c r="AKI4">
+        <v>9.5820382576648801E-3</v>
+      </c>
+      <c r="AKJ4">
+        <v>1.22817200003528E-3</v>
+      </c>
+      <c r="AKK4">
+        <v>1.6697492576128201E-3</v>
+      </c>
+      <c r="AKL4">
+        <v>5.2749632368806199E-3</v>
+      </c>
+      <c r="AKM4">
+        <v>1.1140961420358999E-3</v>
+      </c>
+      <c r="AKN4">
+        <v>2.7479691873703201E-3</v>
+      </c>
+      <c r="AKO4">
+        <v>5.4240472793165599E-3</v>
+      </c>
+      <c r="AKP4">
+        <v>6.9816238019289496E-3</v>
+      </c>
+      <c r="AKQ4">
+        <v>2.31773694383453E-3</v>
+      </c>
+      <c r="AKR4">
+        <v>9.4894759337507198E-3</v>
+      </c>
+      <c r="AKS4">
+        <v>2.07287408025923E-3</v>
+      </c>
+      <c r="AKT4">
+        <v>1.12709634073134E-2</v>
+      </c>
+      <c r="AKU4">
+        <v>1.09747159519753E-3</v>
+      </c>
+      <c r="AKV4">
+        <v>5.1813337956215398E-3</v>
+      </c>
+      <c r="AKW4">
+        <v>3.2295999212396198E-3</v>
+      </c>
+      <c r="AKX4">
+        <v>2.2787126983193399E-3</v>
+      </c>
+      <c r="AKY4">
+        <v>1.0623993797500999E-2</v>
+      </c>
+      <c r="AKZ4">
+        <v>3.0223320901251898E-3</v>
+      </c>
+      <c r="ALA4">
+        <v>3.2293807598464401E-3</v>
+      </c>
+      <c r="ALB4">
+        <v>1.1970446424727599E-2</v>
+      </c>
+      <c r="ALC4">
+        <v>5.4863803203114101E-3</v>
+      </c>
+      <c r="ALD4">
+        <v>4.3377621468982403E-3</v>
+      </c>
+      <c r="ALE4">
+        <v>-1</v>
+      </c>
+      <c r="ALF4">
+        <v>5.46397138457332E-3</v>
+      </c>
+      <c r="ALG4">
+        <v>-1</v>
+      </c>
+      <c r="ALH4">
+        <v>5.1361179443136897E-3</v>
+      </c>
+      <c r="ALI4">
+        <v>5.7974101122415297E-3</v>
+      </c>
+      <c r="ALJ4">
+        <v>9.2572408632366401E-3</v>
+      </c>
+      <c r="ALK4">
+        <v>1.7108934639988799E-3</v>
+      </c>
+      <c r="ALL4">
+        <v>7.5739069199494101E-3</v>
+      </c>
+    </row>
     <row r="7" spans="1:1000" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2</v>
@@ -4801,8 +7998,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>0</v>
       </c>
@@ -4816,35 +8013,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <v>-2</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="F22" s="2">
-        <v>-2</v>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>6</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <v>-1</v>
       </c>
       <c r="D23" s="3">
         <v>86</v>
       </c>
-      <c r="F23" s="2">
-        <v>-1</v>
+      <c r="F23" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G23" s="3">
         <v>86</v>
       </c>
+      <c r="I23" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <v>0</v>
       </c>
@@ -4857,240 +8060,303 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <v>1E-3</v>
       </c>
       <c r="D25" s="3">
         <v>8</v>
       </c>
-      <c r="F25" s="2">
-        <v>1E-3</v>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G25" s="3">
         <v>8</v>
       </c>
+      <c r="I25" s="2">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <v>2E-3</v>
       </c>
       <c r="D26" s="3">
         <v>37</v>
       </c>
-      <c r="F26" s="2">
-        <v>2E-3</v>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G26" s="3">
         <v>37</v>
       </c>
+      <c r="I26" s="2">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D27" s="3">
         <v>91</v>
       </c>
-      <c r="F27" s="2">
-        <v>3.0000000000000001E-3</v>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G27" s="3">
         <v>91</v>
       </c>
+      <c r="I27" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D28" s="3">
         <v>106</v>
       </c>
-      <c r="F28" s="2">
-        <v>4.0000000000000001E-3</v>
+      <c r="F28" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G28" s="3">
         <v>106</v>
       </c>
+      <c r="I28" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D29" s="3">
         <v>117</v>
       </c>
-      <c r="F29" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="3">
         <v>117</v>
       </c>
+      <c r="I29" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D30" s="3">
         <v>101</v>
       </c>
-      <c r="F30" s="2">
-        <v>6.0000000000000001E-3</v>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G30" s="3">
         <v>101</v>
       </c>
+      <c r="I30" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D31" s="3">
         <v>93</v>
       </c>
-      <c r="F31" s="2">
-        <v>7.0000000000000001E-3</v>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G31" s="3">
         <v>93</v>
       </c>
+      <c r="I31" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D32" s="3">
         <v>93</v>
       </c>
-      <c r="F32" s="2">
-        <v>8.0000000000000002E-3</v>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G32" s="3">
         <v>93</v>
       </c>
+      <c r="I32" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D33" s="3">
         <v>59</v>
       </c>
-      <c r="F33" s="2">
-        <v>8.9999999999999993E-3</v>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G33" s="3">
         <v>59</v>
       </c>
+      <c r="I33" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <v>0.01</v>
       </c>
       <c r="D34" s="3">
         <v>41</v>
       </c>
-      <c r="F34" s="2">
-        <v>0.01</v>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G34" s="3">
         <v>41</v>
       </c>
+      <c r="I34" s="2">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <v>0.05</v>
       </c>
       <c r="D35" s="3">
         <v>154</v>
       </c>
-      <c r="F35" s="2">
-        <v>1.0999999999999999E-2</v>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G35" s="3">
         <v>29</v>
       </c>
+      <c r="I35" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
-    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="4">
         <v>8</v>
       </c>
-      <c r="F36" s="2">
-        <v>1.2E-2</v>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G36" s="3">
         <v>29</v>
       </c>
+      <c r="I36" s="2">
+        <v>1.2E-2</v>
+      </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="2">
-        <v>1.2999999999999999E-2</v>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G37" s="3">
         <v>22</v>
       </c>
+      <c r="I37" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="2">
-        <v>1.4E-2</v>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G38" s="3">
         <v>16</v>
       </c>
+      <c r="I38" s="2">
+        <v>1.4E-2</v>
+      </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="2">
-        <v>1.4999999999999999E-2</v>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G39" s="3">
         <v>14</v>
       </c>
+      <c r="I39" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="2">
-        <v>1.6E-2</v>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G40" s="3">
         <v>9</v>
       </c>
+      <c r="I40" s="2">
+        <v>1.6E-2</v>
+      </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="2">
-        <v>1.7000000000000001E-2</v>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G41" s="3">
         <v>7</v>
       </c>
+      <c r="I41" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="2">
-        <v>1.7999999999999999E-2</v>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G42" s="3">
         <v>7</v>
       </c>
+      <c r="I42" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="2">
-        <v>1.9E-2</v>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G43" s="3">
         <v>4</v>
       </c>
+      <c r="I43" s="2">
+        <v>1.9E-2</v>
+      </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="2">
-        <v>0.02</v>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G44" s="3">
         <v>8</v>
       </c>
+      <c r="I44" s="2">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F45" s="4" t="s">
         <v>1</v>
       </c>
